--- a/tabular/genus/cyclo-refseqs-side-data.xlsx
+++ b/tabular/genus/cyclo-refseqs-side-data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/DNAss/CRESS-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C92891-918C-244A-8C17-DB18724E8677}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827C4905-07E7-524C-9ECC-3676FB508FE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12380" yWindow="6460" windowWidth="27240" windowHeight="16440" xr2:uid="{96C333E3-A3BB-5848-89E0-CEFB0FB11671}"/>
   </bookViews>
@@ -692,7 +692,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD20"/>
+      <selection activeCell="A20" sqref="A1:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
